--- a/angular/assignment/angular-7-June-2022.xlsx
+++ b/angular/assignment/angular-7-June-2022.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\incarnus\2022\mean_training_May-2022\angular\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2E5430-637A-4952-83B0-AF5CE7B26BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4818D2-FEF4-4C3C-9D73-043B49BB6552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ipl" sheetId="1" r:id="rId1"/>
+    <sheet name="Counter" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +26,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Develop dashboard for ipl points table </t>
+  </si>
+  <si>
+    <t>&lt;Increment&gt;</t>
+  </si>
+  <si>
+    <t>&lt;decrement&gt;</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Click on increment you have to 5 to previous value</t>
+  </si>
+  <si>
+    <t>Click on decrement you have to subtract 2 from previous value</t>
+  </si>
+  <si>
+    <t>Defalut value is zero</t>
+  </si>
+  <si>
+    <t>When the value reaches 25 you have reset the value to 0</t>
+  </si>
+  <si>
+    <t>When the value reaches 10 then reset the value to 0</t>
   </si>
 </sst>
 </file>
@@ -397,7 +422,7 @@
   <dimension ref="D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -411,4 +436,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DE8B33-3880-4EA0-AE1C-BADC39D601A4}">
+  <dimension ref="D3:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/angular/assignment/angular-7-June-2022.xlsx
+++ b/angular/assignment/angular-7-June-2022.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\incarnus\2022\mean_training_May-2022\angular\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4818D2-FEF4-4C3C-9D73-043B49BB6552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEB790E-6AE9-408C-84B6-D9DA8627C2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ipl" sheetId="1" r:id="rId1"/>
     <sheet name="Counter" sheetId="2" r:id="rId2"/>
+    <sheet name="eshopping" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t xml:space="preserve">Develop dashboard for ipl points table </t>
   </si>
@@ -53,16 +54,92 @@
   </si>
   <si>
     <t>When the value reaches 10 then reset the value to 0</t>
+  </si>
+  <si>
+    <t>eCommerce</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>&lt;text&gt;</t>
+  </si>
+  <si>
+    <t>Purchase Amount</t>
+  </si>
+  <si>
+    <t>Do you have card</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>&lt;Bill&gt;</t>
+  </si>
+  <si>
+    <t>Upto 10000</t>
+  </si>
+  <si>
+    <t>discount = 10 %</t>
+  </si>
+  <si>
+    <t>above 10000 below 20000</t>
+  </si>
+  <si>
+    <t>discount = 20 %</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>above 20000 below 30000</t>
+  </si>
+  <si>
+    <t>discount = 30 %</t>
+  </si>
+  <si>
+    <t>Bill to pay</t>
+  </si>
+  <si>
+    <t>purchase Amount</t>
+  </si>
+  <si>
+    <t>Above 30000</t>
+  </si>
+  <si>
+    <t>dicount = 35 %</t>
+  </si>
+  <si>
+    <t>For card holder</t>
+  </si>
+  <si>
+    <t>Additional discount of 5 %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,8 +165,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -443,7 +522,7 @@
   <dimension ref="D3:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,4 +571,124 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCEB1F0-7F0B-4A9F-89E4-B711FFDE3A9A}">
+  <dimension ref="H5:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="8:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="L10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/angular/assignment/angular-7-June-2022.xlsx
+++ b/angular/assignment/angular-7-June-2022.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\incarnus\2022\mean_training_May-2022\angular\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEB790E-6AE9-408C-84B6-D9DA8627C2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C7F369-0890-471E-AFE7-6CE35A7FA534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ipl" sheetId="1" r:id="rId1"/>
     <sheet name="Counter" sheetId="2" r:id="rId2"/>
     <sheet name="eshopping" sheetId="3" r:id="rId3"/>
+    <sheet name="Autofare" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -224,6 +225,55 @@
         <a:xfrm>
           <a:off x="1828800" y="920750"/>
           <a:ext cx="4838949" cy="2171812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381490</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>44556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE1BB81-AD7E-51A3-6CDB-B67F77C5CADB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="368300"/>
+          <a:ext cx="9525490" cy="2070206"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -577,7 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCEB1F0-7F0B-4A9F-89E4-B711FFDE3A9A}">
   <dimension ref="H5:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -691,4 +741,19 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821EC206-591C-4EEE-8624-72384FC04BE1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/angular/assignment/angular-7-June-2022.xlsx
+++ b/angular/assignment/angular-7-June-2022.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\incarnus\2022\mean_training_May-2022\angular\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C7F369-0890-471E-AFE7-6CE35A7FA534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4608AA-7F2F-4236-833C-8C4852B2BD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ipl" sheetId="1" r:id="rId1"/>
     <sheet name="Counter" sheetId="2" r:id="rId2"/>
     <sheet name="eshopping" sheetId="3" r:id="rId3"/>
     <sheet name="Autofare" sheetId="4" r:id="rId4"/>
+    <sheet name="RegistrationForm" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t xml:space="preserve">Develop dashboard for ipl points table </t>
   </si>
@@ -115,13 +116,46 @@
   </si>
   <si>
     <t>Additional discount of 5 %</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Minimum size=10</t>
+  </si>
+  <si>
+    <t>Minimum size=15</t>
+  </si>
+  <si>
+    <t>size = 10</t>
+  </si>
+  <si>
+    <t>Mandatory size = 10</t>
+  </si>
+  <si>
+    <t>&lt;submit&gt;</t>
+  </si>
+  <si>
+    <t>Submit button is enabled if the form elements are valid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +175,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,10 +208,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821EC206-591C-4EEE-8624-72384FC04BE1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -756,4 +799,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4973CDD-1A12-4348-84C3-079375BA6067}">
+  <dimension ref="E1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>